--- a/REGULAR/GSO/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/GSO/ANGCAYA, ANA B..xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1146,6 +1146,27 @@
   </si>
   <si>
     <t>UT(0-2-40)</t>
+  </si>
+  <si>
+    <t>UT(0-1-32)</t>
+  </si>
+  <si>
+    <t>UT(0-1-14)</t>
+  </si>
+  <si>
+    <t>UT(0-2-17)</t>
+  </si>
+  <si>
+    <t>UT(0-1-8)</t>
+  </si>
+  <si>
+    <t>UT(0-0-37)</t>
+  </si>
+  <si>
+    <t>5/12,27/2022</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1867,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K766" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K772" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2175,12 +2196,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K766"/>
+  <dimension ref="A2:K772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5040" topLeftCell="A540" activePane="bottomLeft"/>
+      <pane ySplit="5040" topLeftCell="A528" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E552" sqref="E552"/>
+      <selection pane="bottomLeft" activeCell="D535" sqref="D535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,7 +2360,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>38.722999999999885</v>
+        <v>34.587999999999838</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13814,99 +13835,103 @@
       </c>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C538" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D538" s="39"/>
+        <v>375</v>
+      </c>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E538" s="9"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H538" s="39">
-        <v>1</v>
-      </c>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39"/>
       <c r="I538" s="9"/>
       <c r="J538" s="11"/>
-      <c r="K538" s="49">
+      <c r="K538" s="49"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" s="40">
         <v>44652</v>
       </c>
-    </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C539" s="13"/>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="13"/>
+      <c r="G539" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H539" s="39">
         <v>1</v>
       </c>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
       <c r="K539" s="49">
-        <v>44673</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A540" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B540" s="20"/>
-      <c r="C540" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A540" s="40"/>
+      <c r="B540" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C540" s="13"/>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H540" s="39"/>
+      <c r="G540" s="13"/>
+      <c r="H540" s="39">
+        <v>1</v>
+      </c>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
+      <c r="K540" s="49">
+        <v>44673</v>
+      </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B541" s="20"/>
-      <c r="C541" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D541" s="39"/>
+      <c r="A541" s="40"/>
+      <c r="B541" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39">
+        <v>0.14200000000000002</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H541" s="39"/>
       <c r="I541" s="9"/>
       <c r="J541" s="11"/>
-      <c r="K541" s="20"/>
+      <c r="K541" s="49"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B542" s="20"/>
+        <v>44682</v>
+      </c>
+      <c r="B542" s="20" t="s">
+        <v>377</v>
+      </c>
       <c r="C542" s="13">
         <v>1.25</v>
       </c>
-      <c r="D542" s="39"/>
+      <c r="D542" s="39">
+        <v>2</v>
+      </c>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
       <c r="G542" s="42">
@@ -13916,111 +13941,107 @@
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
+      <c r="K542" s="20" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C543" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D543" s="39"/>
+        <v>62</v>
+      </c>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39">
+        <v>0.129</v>
+      </c>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H543" s="39">
-        <v>3</v>
-      </c>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20" t="s">
-        <v>361</v>
-      </c>
+      <c r="K543" s="20"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>44805</v>
+        <v>44713</v>
       </c>
       <c r="B544" s="20" t="s">
-        <v>69</v>
+        <v>367</v>
       </c>
       <c r="C544" s="13">
         <v>1.25</v>
       </c>
-      <c r="D544" s="39"/>
+      <c r="D544" s="39">
+        <v>1</v>
+      </c>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
       <c r="G544" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H544" s="39">
-        <v>2</v>
-      </c>
+      <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20" t="s">
-        <v>362</v>
+      <c r="K544" s="49">
+        <v>44732</v>
       </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A545" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C545" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D545" s="39"/>
+        <v>373</v>
+      </c>
+      <c r="C545" s="13"/>
+      <c r="D545" s="39">
+        <v>0.28500000000000003</v>
+      </c>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H545" s="39">
-        <v>1</v>
-      </c>
+      <c r="G545" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="49">
-        <v>44862</v>
-      </c>
+      <c r="K545" s="49"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40"/>
+      <c r="A546" s="40">
+        <v>44743</v>
+      </c>
       <c r="B546" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="C546" s="13"/>
+        <v>372</v>
+      </c>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39">
-        <v>0.33300000000000002</v>
+        <v>0.15400000000000003</v>
       </c>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G546" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="49"/>
+      <c r="K546" s="20"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B547" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B547" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C547" s="13">
         <v>1.25</v>
       </c>
@@ -14031,19 +14052,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H547" s="39"/>
+      <c r="H547" s="39">
+        <v>3</v>
+      </c>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="20" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
-        <v>369</v>
+        <v>114</v>
       </c>
       <c r="C548" s="13"/>
       <c r="D548" s="39">
-        <v>0.51700000000000002</v>
+        <v>0.15600000000000003</v>
       </c>
       <c r="E548" s="9"/>
       <c r="F548" s="20"/>
@@ -14058,38 +14083,38 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>44896</v>
+        <v>44805</v>
       </c>
       <c r="B549" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C549" s="13">
         <v>1.25</v>
       </c>
-      <c r="D549" s="39">
-        <v>1</v>
-      </c>
+      <c r="D549" s="39"/>
       <c r="E549" s="9"/>
       <c r="F549" s="20"/>
       <c r="G549" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H549" s="39"/>
+      <c r="H549" s="39">
+        <v>2</v>
+      </c>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="49">
-        <v>44926</v>
+      <c r="K549" s="20" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C550" s="13"/>
       <c r="D550" s="39">
-        <v>1</v>
+        <v>0.192</v>
       </c>
       <c r="E550" s="9"/>
       <c r="F550" s="20"/>
@@ -14100,40 +14125,46 @@
       <c r="H550" s="39"/>
       <c r="I550" s="9"/>
       <c r="J550" s="11"/>
-      <c r="K550" s="49">
-        <v>44922</v>
-      </c>
+      <c r="K550" s="49"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A551" s="40"/>
+      <c r="A551" s="40">
+        <v>44835</v>
+      </c>
       <c r="B551" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C551" s="13"/>
-      <c r="D551" s="39">
-        <v>0.23100000000000001</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C551" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D551" s="39"/>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H551" s="39"/>
+      <c r="G551" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H551" s="39">
+        <v>1</v>
+      </c>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="49"/>
+      <c r="K551" s="49">
+        <v>44862</v>
+      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A552" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="B552" s="20"/>
+      <c r="A552" s="40"/>
+      <c r="B552" s="20" t="s">
+        <v>370</v>
+      </c>
       <c r="C552" s="13"/>
-      <c r="D552" s="39"/>
+      <c r="D552" s="39">
+        <v>0.33300000000000002</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="42" t="str">
+      <c r="G552" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -14144,7 +14175,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>44927</v>
+        <v>44866</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13">
@@ -14163,138 +14194,120 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C554" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D554" s="39"/>
+        <v>369</v>
+      </c>
+      <c r="C554" s="13"/>
+      <c r="D554" s="39">
+        <v>0.51700000000000002</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H554" s="39">
-        <v>1</v>
-      </c>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="49">
-        <v>44973</v>
-      </c>
+      <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40"/>
+      <c r="A555" s="40">
+        <v>44896</v>
+      </c>
       <c r="B555" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C555" s="13"/>
-      <c r="D555" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="C555" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D555" s="39">
+        <v>1</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H555" s="39">
-        <v>1</v>
-      </c>
+      <c r="G555" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H555" s="39"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
       <c r="K555" s="49">
-        <v>44966</v>
+        <v>44926</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C556" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D556" s="39"/>
+        <v>367</v>
+      </c>
+      <c r="C556" s="13"/>
+      <c r="D556" s="39">
+        <v>1</v>
+      </c>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H556" s="39">
-        <v>1</v>
-      </c>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H556" s="39"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="49">
-        <v>45014</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A557" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B557" s="20"/>
-      <c r="C557" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D557" s="39"/>
+      <c r="A557" s="40"/>
+      <c r="B557" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C557" s="13"/>
+      <c r="D557" s="39">
+        <v>0.23100000000000001</v>
+      </c>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G557" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H557" s="39"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="20"/>
+      <c r="K557" s="49"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B558" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C558" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D558" s="39">
-        <v>2</v>
-      </c>
+      <c r="A558" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="B558" s="20"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="39"/>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G558" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
-      <c r="K558" s="20" t="s">
-        <v>364</v>
-      </c>
+      <c r="K558" s="49"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B559" s="20" t="s">
-        <v>142</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B559" s="20"/>
       <c r="C559" s="13">
         <v>1.25</v>
       </c>
-      <c r="D559" s="39">
-        <v>2</v>
-      </c>
+      <c r="D559" s="39"/>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
       <c r="G559" s="42">
@@ -14304,22 +14317,24 @@
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20" t="s">
-        <v>365</v>
-      </c>
+      <c r="K559" s="20"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A560" s="40"/>
+      <c r="A560" s="40">
+        <v>44958</v>
+      </c>
       <c r="B560" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C560" s="13"/>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G560" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H560" s="39">
         <v>1</v>
@@ -14327,65 +14342,71 @@
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
       <c r="K560" s="49">
-        <v>45086</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D561" s="39">
-        <v>3</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C561" s="13"/>
+      <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H561" s="39"/>
+      <c r="G561" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39">
+        <v>1</v>
+      </c>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20" t="s">
-        <v>366</v>
+      <c r="K561" s="49">
+        <v>44966</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B562" s="20"/>
-      <c r="C562" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B562" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H562" s="39"/>
+      <c r="G562" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H562" s="39">
+        <v>1</v>
+      </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="49">
+        <v>45014</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45170</v>
+        <v>45017</v>
       </c>
       <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
@@ -14394,45 +14415,61 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B564" s="20"/>
-      <c r="C564" s="13"/>
-      <c r="D564" s="39"/>
+        <v>45047</v>
+      </c>
+      <c r="B564" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D564" s="39">
+        <v>2</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="20" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
-      <c r="D565" s="39"/>
+        <v>45078</v>
+      </c>
+      <c r="B565" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D565" s="39">
+        <v>2</v>
+      </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="20" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B566" s="20"/>
+      <c r="A566" s="40"/>
+      <c r="B566" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
@@ -14441,32 +14478,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H566" s="39"/>
+      <c r="H566" s="39">
+        <v>1</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="49">
+        <v>45086</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B567" s="20"/>
-      <c r="C567" s="13"/>
-      <c r="D567" s="39"/>
+        <v>45108</v>
+      </c>
+      <c r="B567" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D567" s="39">
+        <v>3</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="20" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45323</v>
+        <v>45139</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14484,7 +14533,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45352</v>
+        <v>45170</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -14502,7 +14551,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45383</v>
+        <v>45200</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -14520,7 +14569,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45413</v>
+        <v>45231</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14538,7 +14587,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45444</v>
+        <v>45261</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14556,7 +14605,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45474</v>
+        <v>45292</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14574,7 +14623,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45505</v>
+        <v>45323</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14592,7 +14641,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45536</v>
+        <v>45352</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14610,7 +14659,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45566</v>
+        <v>45383</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14628,7 +14677,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45597</v>
+        <v>45413</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14646,7 +14695,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45627</v>
+        <v>45444</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14664,7 +14713,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45658</v>
+        <v>45474</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14682,7 +14731,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45689</v>
+        <v>45505</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14700,7 +14749,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45717</v>
+        <v>45536</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14718,7 +14767,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14736,7 +14785,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45778</v>
+        <v>45597</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14754,7 +14803,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45809</v>
+        <v>45627</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14772,7 +14821,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45839</v>
+        <v>45658</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14790,7 +14839,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45870</v>
+        <v>45689</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14808,7 +14857,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45901</v>
+        <v>45717</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14826,7 +14875,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45931</v>
+        <v>45748</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14844,7 +14893,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45962</v>
+        <v>45778</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14862,7 +14911,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45992</v>
+        <v>45809</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14880,7 +14929,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46023</v>
+        <v>45839</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14898,7 +14947,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46054</v>
+        <v>45870</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14916,7 +14965,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46082</v>
+        <v>45901</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14934,7 +14983,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46113</v>
+        <v>45931</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -14952,7 +15001,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46143</v>
+        <v>45962</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -14970,7 +15019,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46174</v>
+        <v>45992</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -14988,7 +15037,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46204</v>
+        <v>46023</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15006,7 +15055,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46235</v>
+        <v>46054</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15024,7 +15073,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46266</v>
+        <v>46082</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15042,7 +15091,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46296</v>
+        <v>46113</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15060,7 +15109,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46327</v>
+        <v>46143</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15078,7 +15127,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46357</v>
+        <v>46174</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15096,7 +15145,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46388</v>
+        <v>46204</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15114,7 +15163,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46419</v>
+        <v>46235</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15132,7 +15181,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46447</v>
+        <v>46266</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15150,7 +15199,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46478</v>
+        <v>46296</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15168,7 +15217,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46508</v>
+        <v>46327</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15186,7 +15235,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46539</v>
+        <v>46357</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15204,7 +15253,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46569</v>
+        <v>46388</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15222,7 +15271,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46600</v>
+        <v>46419</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15240,7 +15289,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46631</v>
+        <v>46447</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15258,7 +15307,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46661</v>
+        <v>46478</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15276,7 +15325,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46692</v>
+        <v>46508</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15294,7 +15343,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46722</v>
+        <v>46539</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15312,7 +15361,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46753</v>
+        <v>46569</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15330,7 +15379,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46784</v>
+        <v>46600</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15348,7 +15397,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46813</v>
+        <v>46631</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15366,7 +15415,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46844</v>
+        <v>46661</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15384,7 +15433,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46874</v>
+        <v>46692</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15402,7 +15451,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46905</v>
+        <v>46722</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15420,7 +15469,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46935</v>
+        <v>46753</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15438,7 +15487,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46966</v>
+        <v>46784</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15456,7 +15505,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46997</v>
+        <v>46813</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15474,7 +15523,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>47027</v>
+        <v>46844</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15492,7 +15541,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>47058</v>
+        <v>46874</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15510,7 +15559,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>47088</v>
+        <v>46905</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15528,7 +15577,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>47119</v>
+        <v>46935</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15546,7 +15595,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>47150</v>
+        <v>46966</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15564,7 +15613,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>47178</v>
+        <v>46997</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15582,7 +15631,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>47209</v>
+        <v>47027</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15600,7 +15649,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>47239</v>
+        <v>47058</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15618,7 +15667,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>47270</v>
+        <v>47088</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15636,7 +15685,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>47300</v>
+        <v>47119</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15654,7 +15703,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>47331</v>
+        <v>47150</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15672,7 +15721,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>47362</v>
+        <v>47178</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15690,7 +15739,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>47392</v>
+        <v>47209</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15708,7 +15757,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>47423</v>
+        <v>47239</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15726,7 +15775,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>47453</v>
+        <v>47270</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15744,7 +15793,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>47484</v>
+        <v>47300</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15762,7 +15811,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>47515</v>
+        <v>47331</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15780,7 +15829,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>47543</v>
+        <v>47362</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -15798,7 +15847,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>47574</v>
+        <v>47392</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -15816,7 +15865,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>47604</v>
+        <v>47423</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -15834,7 +15883,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>47635</v>
+        <v>47453</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -15852,7 +15901,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>47665</v>
+        <v>47484</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -15870,7 +15919,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>47696</v>
+        <v>47515</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -15888,7 +15937,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>47727</v>
+        <v>47543</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -15906,7 +15955,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>47757</v>
+        <v>47574</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -15924,7 +15973,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>47788</v>
+        <v>47604</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -15942,7 +15991,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>47818</v>
+        <v>47635</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -15960,7 +16009,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>47849</v>
+        <v>47665</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -15978,7 +16027,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>47880</v>
+        <v>47696</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -15996,7 +16045,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>47908</v>
+        <v>47727</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16014,7 +16063,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>47939</v>
+        <v>47757</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16032,7 +16081,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>47969</v>
+        <v>47788</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16050,7 +16099,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>48000</v>
+        <v>47818</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16068,7 +16117,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>48030</v>
+        <v>47849</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16086,7 +16135,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>48061</v>
+        <v>47880</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16104,7 +16153,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>48092</v>
+        <v>47908</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16122,7 +16171,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>48122</v>
+        <v>47939</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16139,7 +16188,9 @@
       <c r="K660" s="20"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="40"/>
+      <c r="A661" s="40">
+        <v>47969</v>
+      </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
       <c r="D661" s="39"/>
@@ -16155,7 +16206,9 @@
       <c r="K661" s="20"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="40"/>
+      <c r="A662" s="40">
+        <v>48000</v>
+      </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
       <c r="D662" s="39"/>
@@ -16171,7 +16224,9 @@
       <c r="K662" s="20"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="40"/>
+      <c r="A663" s="40">
+        <v>48030</v>
+      </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
       <c r="D663" s="39"/>
@@ -16187,7 +16242,9 @@
       <c r="K663" s="20"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A664" s="40"/>
+      <c r="A664" s="40">
+        <v>48061</v>
+      </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
       <c r="D664" s="39"/>
@@ -16203,7 +16260,9 @@
       <c r="K664" s="20"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A665" s="40"/>
+      <c r="A665" s="40">
+        <v>48092</v>
+      </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
       <c r="D665" s="39"/>
@@ -16219,7 +16278,9 @@
       <c r="K665" s="20"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40"/>
+      <c r="A666" s="40">
+        <v>48122</v>
+      </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
       <c r="D666" s="39"/>
@@ -17819,20 +17880,116 @@
       <c r="K765" s="20"/>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A766" s="41"/>
-      <c r="B766" s="15"/>
-      <c r="C766" s="42"/>
-      <c r="D766" s="43"/>
-      <c r="E766" s="51"/>
-      <c r="F766" s="15"/>
+      <c r="A766" s="40"/>
+      <c r="B766" s="20"/>
+      <c r="C766" s="13"/>
+      <c r="D766" s="39"/>
+      <c r="E766" s="9"/>
+      <c r="F766" s="20"/>
       <c r="G766" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H766" s="43"/>
-      <c r="I766" s="51"/>
-      <c r="J766" s="12"/>
-      <c r="K766" s="15"/>
+      <c r="H766" s="39"/>
+      <c r="I766" s="9"/>
+      <c r="J766" s="11"/>
+      <c r="K766" s="20"/>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A767" s="40"/>
+      <c r="B767" s="20"/>
+      <c r="C767" s="13"/>
+      <c r="D767" s="39"/>
+      <c r="E767" s="9"/>
+      <c r="F767" s="20"/>
+      <c r="G767" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H767" s="39"/>
+      <c r="I767" s="9"/>
+      <c r="J767" s="11"/>
+      <c r="K767" s="20"/>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A768" s="40"/>
+      <c r="B768" s="20"/>
+      <c r="C768" s="13"/>
+      <c r="D768" s="39"/>
+      <c r="E768" s="9"/>
+      <c r="F768" s="20"/>
+      <c r="G768" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H768" s="39"/>
+      <c r="I768" s="9"/>
+      <c r="J768" s="11"/>
+      <c r="K768" s="20"/>
+    </row>
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A769" s="40"/>
+      <c r="B769" s="20"/>
+      <c r="C769" s="13"/>
+      <c r="D769" s="39"/>
+      <c r="E769" s="9"/>
+      <c r="F769" s="20"/>
+      <c r="G769" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H769" s="39"/>
+      <c r="I769" s="9"/>
+      <c r="J769" s="11"/>
+      <c r="K769" s="20"/>
+    </row>
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A770" s="40"/>
+      <c r="B770" s="20"/>
+      <c r="C770" s="13"/>
+      <c r="D770" s="39"/>
+      <c r="E770" s="9"/>
+      <c r="F770" s="20"/>
+      <c r="G770" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H770" s="39"/>
+      <c r="I770" s="9"/>
+      <c r="J770" s="11"/>
+      <c r="K770" s="20"/>
+    </row>
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A771" s="40"/>
+      <c r="B771" s="20"/>
+      <c r="C771" s="13"/>
+      <c r="D771" s="39"/>
+      <c r="E771" s="9"/>
+      <c r="F771" s="20"/>
+      <c r="G771" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H771" s="39"/>
+      <c r="I771" s="9"/>
+      <c r="J771" s="11"/>
+      <c r="K771" s="20"/>
+    </row>
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A772" s="41"/>
+      <c r="B772" s="15"/>
+      <c r="C772" s="42"/>
+      <c r="D772" s="43"/>
+      <c r="E772" s="51"/>
+      <c r="F772" s="15"/>
+      <c r="G772" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H772" s="43"/>
+      <c r="I772" s="51"/>
+      <c r="J772" s="12"/>
+      <c r="K772" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17947,14 +18104,14 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.33300000000000002</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/GSO/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/GSO/ANGCAYA, ANA B..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2199,9 +2199,9 @@
   <dimension ref="A2:K772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5040" topLeftCell="A528" activePane="bottomLeft"/>
+      <pane ySplit="5040" topLeftCell="A558" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D535" sqref="D535"/>
+      <selection pane="bottomLeft" activeCell="E568" sqref="E568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2360,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>34.587999999999838</v>
+        <v>33.587999999999838</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14517,9 +14517,13 @@
       <c r="A568" s="40">
         <v>45139</v>
       </c>
-      <c r="B568" s="20"/>
+      <c r="B568" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C568" s="13"/>
-      <c r="D568" s="39"/>
+      <c r="D568" s="39">
+        <v>1</v>
+      </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
       <c r="G568" s="42" t="str">
@@ -14529,7 +14533,9 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="49">
+        <v>45149</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">

--- a/REGULAR/GSO/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/GSO/ANGCAYA, ANA B..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2201,7 +2201,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="5040" topLeftCell="A558" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E568" sqref="E568"/>
+      <selection pane="bottomLeft" activeCell="K569" sqref="K569"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2360,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.587999999999838</v>
+        <v>36.087999999999838</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2370,7 +2370,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>144.125</v>
+        <v>145.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14520,15 +14520,17 @@
       <c r="B568" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39">
         <v>1</v>
       </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -14541,19 +14543,27 @@
       <c r="A569" s="40">
         <v>45170</v>
       </c>
-      <c r="B569" s="20"/>
-      <c r="C569" s="13"/>
+      <c r="B569" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C569" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D569" s="39"/>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H569" s="39"/>
+      <c r="G569" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H569" s="39">
+        <v>1</v>
+      </c>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="49">
+        <v>45194</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">

--- a/REGULAR/GSO/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/GSO/ANGCAYA, ANA B..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="380">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1170,6 +1170,9 @@
   </si>
   <si>
     <t>12/18-20/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1870,7 +1873,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K772" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K773" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2199,12 +2202,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K772"/>
+  <dimension ref="A2:K773"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5040" topLeftCell="A558" activePane="bottomLeft"/>
+      <pane ySplit="5040" topLeftCell="A564" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="G573" sqref="G573"/>
+      <selection pane="bottomLeft" activeCell="D576" sqref="D576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2366,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.587999999999838</v>
+        <v>36.837999999999838</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2373,7 +2376,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.125</v>
+        <v>148.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14619,13 +14622,15 @@
         <v>45261</v>
       </c>
       <c r="B572" s="20"/>
-      <c r="C572" s="13"/>
+      <c r="C572" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D572" s="39"/>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G572" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
@@ -14633,8 +14638,8 @@
       <c r="K572" s="20"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40">
-        <v>45292</v>
+      <c r="A573" s="48" t="s">
+        <v>379</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14652,9 +14657,11 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B574" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B574" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C574" s="13"/>
       <c r="D574" s="39"/>
       <c r="E574" s="9"/>
@@ -14663,14 +14670,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H574" s="39"/>
+      <c r="H574" s="39">
+        <v>1</v>
+      </c>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
+      <c r="K574" s="49">
+        <v>45303</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14688,7 +14699,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14706,7 +14717,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14724,7 +14735,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14742,7 +14753,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14760,7 +14771,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14778,7 +14789,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14796,7 +14807,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14814,7 +14825,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14832,7 +14843,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14850,7 +14861,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14868,7 +14879,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14886,7 +14897,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14904,7 +14915,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14922,7 +14933,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14940,7 +14951,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14958,7 +14969,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14976,7 +14987,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14994,7 +15005,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15012,7 +15023,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15030,7 +15041,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15048,7 +15059,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15066,7 +15077,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15084,7 +15095,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15102,7 +15113,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15120,7 +15131,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15138,7 +15149,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15156,7 +15167,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15174,7 +15185,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15192,7 +15203,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15210,7 +15221,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15228,7 +15239,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15246,7 +15257,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15264,7 +15275,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15282,7 +15293,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15300,7 +15311,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15318,7 +15329,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15336,7 +15347,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15354,7 +15365,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15372,7 +15383,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15390,7 +15401,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15408,7 +15419,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15426,7 +15437,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15444,7 +15455,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15462,7 +15473,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15480,7 +15491,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15498,7 +15509,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15516,7 +15527,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15534,7 +15545,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15552,7 +15563,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15570,7 +15581,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15588,7 +15599,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15606,7 +15617,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15624,7 +15635,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15642,7 +15653,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15660,7 +15671,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15678,7 +15689,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15696,7 +15707,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15714,7 +15725,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15732,7 +15743,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15750,7 +15761,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15768,7 +15779,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15786,7 +15797,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15804,7 +15815,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15822,7 +15833,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15840,7 +15851,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15858,7 +15869,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -15876,7 +15887,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -15894,7 +15905,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -15912,7 +15923,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -15930,7 +15941,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -15948,7 +15959,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -15966,7 +15977,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -15984,7 +15995,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16002,7 +16013,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16020,7 +16031,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16038,7 +16049,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16056,7 +16067,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16074,7 +16085,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16092,7 +16103,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16110,7 +16121,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16128,7 +16139,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16146,7 +16157,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16164,7 +16175,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16182,7 +16193,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16200,7 +16211,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16218,7 +16229,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16236,7 +16247,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16254,7 +16265,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16272,7 +16283,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -16290,7 +16301,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -16308,7 +16319,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -16325,7 +16336,9 @@
       <c r="K666" s="20"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A667" s="40"/>
+      <c r="A667" s="40">
+        <v>48122</v>
+      </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
       <c r="D667" s="39"/>
@@ -18005,20 +18018,36 @@
       <c r="K771" s="20"/>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" s="41"/>
-      <c r="B772" s="15"/>
-      <c r="C772" s="42"/>
-      <c r="D772" s="43"/>
-      <c r="E772" s="51"/>
-      <c r="F772" s="15"/>
+      <c r="A772" s="40"/>
+      <c r="B772" s="20"/>
+      <c r="C772" s="13"/>
+      <c r="D772" s="39"/>
+      <c r="E772" s="9"/>
+      <c r="F772" s="20"/>
       <c r="G772" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H772" s="43"/>
-      <c r="I772" s="51"/>
-      <c r="J772" s="12"/>
-      <c r="K772" s="15"/>
+      <c r="H772" s="39"/>
+      <c r="I772" s="9"/>
+      <c r="J772" s="11"/>
+      <c r="K772" s="20"/>
+    </row>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A773" s="41"/>
+      <c r="B773" s="15"/>
+      <c r="C773" s="42"/>
+      <c r="D773" s="43"/>
+      <c r="E773" s="51"/>
+      <c r="F773" s="15"/>
+      <c r="G773" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H773" s="43"/>
+      <c r="I773" s="51"/>
+      <c r="J773" s="12"/>
+      <c r="K773" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/GSO/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/GSO/ANGCAYA, ANA B..xlsx
@@ -2202,12 +2202,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K773"/>
+  <dimension ref="A2:M773"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="5040" topLeftCell="A564" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D576" sqref="D576"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="M566" sqref="M566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,7 +2225,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2284,7 +2284,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2292,7 +2292,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2305,7 +2305,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2322,7 +2322,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2380,8 +2380,9 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2403,7 +2404,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36373</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>36376</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2448,7 +2449,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2465,7 +2466,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -2510,7 +2511,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36434</v>
       </c>

--- a/REGULAR/GSO/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/GSO/ANGCAYA, ANA B..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C6E74-CC9A-4C7E-98E7-0A36A56745F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="380">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1178,7 +1179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1856,7 +1857,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1873,25 +1874,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K773" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K774" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2198,34 +2199,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M773"/>
+  <dimension ref="A2:M774"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5040" topLeftCell="A564" activePane="bottomLeft"/>
+      <pane ySplit="5040" topLeftCell="A570" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="M566" sqref="M566"/>
+      <selection pane="bottomLeft" activeCell="B576" sqref="B576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2247,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2265,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2284,7 +2285,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2292,7 +2293,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2305,7 +2306,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2322,7 +2323,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2366,7 +2367,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.837999999999838</v>
+        <v>38.087999999999838</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2376,13 +2377,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>148.375</v>
+        <v>148.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2404,7 +2405,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36373</v>
       </c>
@@ -2430,7 +2431,7 @@
         <v>36376</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2449,7 +2450,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2466,7 +2467,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -2511,7 +2512,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36434</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>45</v>
@@ -2556,7 +2557,7 @@
         <v>36448</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
@@ -2573,7 +2574,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36465</v>
       </c>
@@ -2597,7 +2598,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36495</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>52</v>
@@ -2645,7 +2646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>50</v>
@@ -2665,7 +2666,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -2683,7 +2684,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36526</v>
       </c>
@@ -2707,7 +2708,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36557</v>
       </c>
@@ -2731,7 +2732,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36586</v>
       </c>
@@ -2755,7 +2756,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36617</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>36626</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>60</v>
@@ -2798,7 +2799,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36647</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>36664</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -2843,7 +2844,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>62</v>
@@ -2860,7 +2861,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36678</v>
       </c>
@@ -2884,7 +2885,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>52</v>
@@ -2901,7 +2902,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36708</v>
       </c>
@@ -2925,7 +2926,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36739</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>36753</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>45</v>
@@ -2966,7 +2967,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>65</v>
@@ -2983,7 +2984,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36770</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -3028,7 +3029,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -3045,7 +3046,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36800</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>36826</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>67</v>
@@ -3086,7 +3087,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36831</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>36854</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>69</v>
@@ -3131,7 +3132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -3150,7 +3151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>68</v>
@@ -3169,7 +3170,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -3186,7 +3187,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36861</v>
       </c>
@@ -3210,7 +3211,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>77</v>
       </c>
@@ -3228,7 +3229,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36892</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>86</v>
@@ -3273,7 +3274,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36923</v>
       </c>
@@ -3297,7 +3298,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>79</v>
@@ -3314,7 +3315,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36951</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>81</v>
@@ -3359,7 +3360,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36982</v>
       </c>
@@ -3383,7 +3384,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37012</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>37042</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>49</v>
@@ -3426,7 +3427,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>63</v>
@@ -3445,7 +3446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>83</v>
@@ -3488,7 +3489,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37073</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>37074</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>84</v>
@@ -3531,7 +3532,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37104</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -3574,7 +3575,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37135</v>
       </c>
@@ -3600,7 +3601,7 @@
         <v>37155</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>91</v>
@@ -3617,7 +3618,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37165</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>37194</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>92</v>
@@ -3660,7 +3661,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37196</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>65</v>
@@ -3703,7 +3704,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37226</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>37245</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -3749,7 +3750,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>94</v>
       </c>
@@ -3767,7 +3768,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37257</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -3810,7 +3811,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37288</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>80</v>
@@ -3857,7 +3858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -3874,7 +3875,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37316</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>97</v>
@@ -3917,7 +3918,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37347</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>37372</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>78</v>
@@ -3964,7 +3965,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>98</v>
@@ -3981,7 +3982,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37377</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>101</v>
@@ -4026,7 +4027,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37408</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37438</v>
       </c>
@@ -4072,7 +4073,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37469</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>102</v>
@@ -4117,7 +4118,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -4134,7 +4135,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37500</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>78</v>
@@ -4179,7 +4180,7 @@
         <v>37516</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>78</v>
@@ -4198,7 +4199,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>104</v>
@@ -4217,7 +4218,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37530</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>37558</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37561</v>
       </c>
@@ -4267,7 +4268,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37591</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>37619</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>109</v>
       </c>
@@ -4311,7 +4312,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37622</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>37650</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37653</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>37663</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>111</v>
@@ -4380,7 +4381,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37681</v>
       </c>
@@ -4404,7 +4405,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>37712</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>37722</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>69</v>
@@ -4449,7 +4450,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>113</v>
@@ -4466,7 +4467,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37742</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>37757</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>45</v>
@@ -4511,7 +4512,7 @@
         <v>37748</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>114</v>
@@ -4528,7 +4529,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37773</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>37799</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37803</v>
       </c>
@@ -4578,7 +4579,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37834</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>37862</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>116</v>
@@ -4621,7 +4622,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37865</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>37873</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>52</v>
@@ -4666,7 +4667,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>119</v>
@@ -4683,7 +4684,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37895</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -4726,7 +4727,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37926</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>123</v>
@@ -4769,7 +4770,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37956</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -4817,7 +4818,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>128</v>
       </c>
@@ -4835,7 +4836,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37987</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>129</v>
@@ -4880,7 +4881,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>130</v>
@@ -4897,7 +4898,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>38018</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>38021</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>131</v>
@@ -4940,7 +4941,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>38047</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>132</v>
@@ -4983,7 +4984,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>38078</v>
       </c>
@@ -5009,7 +5010,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38108</v>
       </c>
@@ -5033,7 +5034,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38139</v>
       </c>
@@ -5059,7 +5060,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>38169</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>38183</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>136</v>
@@ -5104,7 +5105,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38200</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>38209</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>139</v>
@@ -5149,7 +5150,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38231</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>52</v>
@@ -5196,7 +5197,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -5219,7 +5220,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>140</v>
@@ -5236,7 +5237,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>38261</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>141</v>
@@ -5277,7 +5278,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>38292</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>143</v>
@@ -5320,7 +5321,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>38322</v>
       </c>
@@ -5340,7 +5341,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>149</v>
       </c>
@@ -5358,7 +5359,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38353</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>38433</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>38384</v>
       </c>
@@ -5404,7 +5405,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38412</v>
       </c>
@@ -5426,7 +5427,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>151</v>
@@ -5443,7 +5444,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38443</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>152</v>
@@ -5486,7 +5487,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38473</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>153</v>
@@ -5531,7 +5532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>156</v>
@@ -5548,7 +5549,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>38504</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>45</v>
@@ -5591,7 +5592,7 @@
         <v>38532</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>157</v>
@@ -5608,7 +5609,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38534</v>
       </c>
@@ -5632,7 +5633,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38565</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>160</v>
@@ -5677,7 +5678,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38596</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
         <v>161</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38626</v>
       </c>
@@ -5737,7 +5738,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>159</v>
@@ -5754,7 +5755,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38657</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>162</v>
@@ -5799,7 +5800,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38687</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>47</v>
@@ -5849,7 +5850,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>104</v>
@@ -5873,7 +5874,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>163</v>
@@ -5895,7 +5896,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="48" t="s">
         <v>169</v>
       </c>
@@ -5913,7 +5914,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>38718</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>170</v>
@@ -5954,7 +5955,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38749</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>52</v>
@@ -6003,7 +6004,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>173</v>
@@ -6020,7 +6021,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38777</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>38792</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>47</v>
@@ -6069,7 +6070,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>175</v>
@@ -6088,7 +6089,7 @@
       </c>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>38808</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -6133,7 +6134,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>151</v>
@@ -6150,7 +6151,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>52</v>
@@ -6171,7 +6172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>150</v>
@@ -6188,7 +6189,7 @@
         <v>38868</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38838</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>150</v>
@@ -6231,7 +6232,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>176</v>
@@ -6250,7 +6251,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>38869</v>
       </c>
@@ -6278,7 +6279,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>78</v>
@@ -6297,7 +6298,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>177</v>
@@ -6316,7 +6317,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>178</v>
@@ -6337,7 +6338,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>38899</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>45</v>
@@ -6382,7 +6383,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>180</v>
@@ -6399,7 +6400,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38930</v>
       </c>
@@ -6425,7 +6426,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>38961</v>
       </c>
@@ -6451,7 +6452,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>45</v>
@@ -6470,7 +6471,7 @@
         <v>38985</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>187</v>
@@ -6489,7 +6490,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>38991</v>
       </c>
@@ -6513,7 +6514,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>39022</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>47</v>
@@ -6562,7 +6563,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>49</v>
@@ -6581,7 +6582,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>189</v>
@@ -6600,7 +6601,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39052</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>78</v>
@@ -6650,7 +6651,7 @@
         <v>39075</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>195</v>
@@ -6667,7 +6668,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="49"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="48" t="s">
         <v>194</v>
       </c>
@@ -6685,7 +6686,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39083</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>39093</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>150</v>
@@ -6728,7 +6729,7 @@
         <v>39111</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>69</v>
@@ -6747,7 +6748,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>196</v>
@@ -6764,7 +6765,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39114</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>136</v>
@@ -6807,7 +6808,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>39142</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>197</v>
@@ -6850,7 +6851,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39173</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>200</v>
@@ -6895,7 +6896,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39203</v>
       </c>
@@ -6919,7 +6920,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>39234</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>45</v>
@@ -6964,7 +6965,7 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>78</v>
@@ -6987,7 +6988,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>150</v>
@@ -7004,7 +7005,7 @@
         <v>39269</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>202</v>
@@ -7023,7 +7024,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39264</v>
       </c>
@@ -7047,7 +7048,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39295</v>
       </c>
@@ -7071,7 +7072,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39326</v>
       </c>
@@ -7097,7 +7098,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>45</v>
@@ -7116,7 +7117,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>205</v>
@@ -7133,7 +7134,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>39356</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>69</v>
@@ -7178,7 +7179,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>206</v>
@@ -7195,7 +7196,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>39387</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>39395</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>52</v>
@@ -7240,7 +7241,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>210</v>
@@ -7257,7 +7258,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39417</v>
       </c>
@@ -7281,7 +7282,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>212</v>
@@ -7298,7 +7299,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>211</v>
       </c>
@@ -7316,7 +7317,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39448</v>
       </c>
@@ -7340,7 +7341,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41">
         <v>39479</v>
       </c>
@@ -7366,7 +7367,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>69</v>
@@ -7388,7 +7389,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7410,7 +7411,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>214</v>
@@ -7432,7 +7433,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41">
         <v>39508</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -7480,7 +7481,7 @@
         <v>39518</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>47</v>
@@ -7502,7 +7503,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>78</v>
@@ -7526,7 +7527,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>215</v>
@@ -7548,7 +7549,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41">
         <v>39539</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>39561</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>45</v>
@@ -7602,7 +7603,7 @@
         <v>39567</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41">
         <v>39569</v>
       </c>
@@ -7628,7 +7629,7 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>45</v>
@@ -7650,7 +7651,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>150</v>
@@ -7670,7 +7671,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>217</v>
@@ -7690,7 +7691,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="41">
         <v>39600</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>39624</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>220</v>
@@ -7738,7 +7739,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41">
         <v>39630</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>39643</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>221</v>
@@ -7786,7 +7787,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="41">
         <v>39661</v>
       </c>
@@ -7810,7 +7811,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="41">
         <v>39692</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>45</v>
@@ -7858,7 +7859,7 @@
         <v>39720</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>223</v>
@@ -7880,7 +7881,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="41">
         <v>39722</v>
       </c>
@@ -7906,7 +7907,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>224</v>
@@ -7928,7 +7929,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="41">
         <v>39753</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>225</v>
@@ -7980,7 +7981,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -8002,7 +8003,7 @@
         <v>39778</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -8022,7 +8023,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="41">
         <v>39783</v>
       </c>
@@ -8046,7 +8047,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="48" t="s">
         <v>229</v>
       </c>
@@ -8064,7 +8065,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>39814</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>39818</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -8105,7 +8106,7 @@
         <v>39832</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>150</v>
@@ -8122,7 +8123,7 @@
         <v>39836</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>230</v>
@@ -8141,7 +8142,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -8158,7 +8159,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>39845</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>129</v>
@@ -8205,7 +8206,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>233</v>
@@ -8222,7 +8223,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39873</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>78</v>
@@ -8271,7 +8272,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>226</v>
@@ -8292,7 +8293,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39904</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>39906</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8337,7 +8338,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -8356,7 +8357,7 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>69</v>
@@ -8375,7 +8376,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>234</v>
@@ -8396,7 +8397,7 @@
       </c>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>39934</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>235</v>
@@ -8443,7 +8444,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>39965</v>
       </c>
@@ -8467,7 +8468,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>39995</v>
       </c>
@@ -8493,7 +8494,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40026</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>40049</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>238</v>
@@ -8538,7 +8539,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40057</v>
       </c>
@@ -8564,7 +8565,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40087</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>69</v>
@@ -8609,7 +8610,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>68</v>
@@ -8628,7 +8629,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8645,7 +8646,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>40118</v>
       </c>
@@ -8669,7 +8670,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>40148</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>45</v>
@@ -8714,7 +8715,7 @@
         <v>40158</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -8736,7 +8737,7 @@
         <v>40165</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>247</v>
@@ -8758,7 +8759,7 @@
         <v>40169</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="48" t="s">
         <v>249</v>
       </c>
@@ -8776,7 +8777,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>40179</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -8819,7 +8820,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>251</v>
@@ -8838,7 +8839,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>40210</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>40218</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>252</v>
@@ -8881,7 +8882,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>40238</v>
       </c>
@@ -8907,7 +8908,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40269</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>45</v>
@@ -8952,7 +8953,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>188</v>
@@ -8969,7 +8970,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40299</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>255</v>
@@ -9012,7 +9013,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="49"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40330</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>256</v>
@@ -9055,7 +9056,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40360</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>40387</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>257</v>
@@ -9098,7 +9099,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>40391</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>45</v>
@@ -9143,7 +9144,7 @@
         <v>40410</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>258</v>
@@ -9160,7 +9161,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40422</v>
       </c>
@@ -9186,7 +9187,7 @@
         <v>40434</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>78</v>
@@ -9207,7 +9208,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>259</v>
@@ -9224,7 +9225,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>40452</v>
       </c>
@@ -9248,7 +9249,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>40483</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>261</v>
@@ -9291,7 +9292,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40513</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>40529</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>45</v>
@@ -9341,7 +9342,7 @@
         <v>40535</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>262</v>
@@ -9363,7 +9364,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="48" t="s">
         <v>264</v>
       </c>
@@ -9381,7 +9382,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>40544</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>261</v>
@@ -9422,7 +9423,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>40575</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>268</v>
@@ -9465,7 +9466,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40603</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>150</v>
@@ -9508,7 +9509,7 @@
         <v>40662</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>269</v>
@@ -9525,7 +9526,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>40634</v>
       </c>
@@ -9549,7 +9550,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>40664</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>271</v>
@@ -9592,7 +9593,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40695</v>
       </c>
@@ -9616,7 +9617,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40725</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>274</v>
@@ -9659,7 +9660,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>40756</v>
       </c>
@@ -9683,7 +9684,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40787</v>
       </c>
@@ -9707,7 +9708,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>40817</v>
       </c>
@@ -9731,7 +9732,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>40848</v>
       </c>
@@ -9757,7 +9758,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>204</v>
@@ -9774,7 +9775,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>40878</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>278</v>
@@ -9820,7 +9821,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="48" t="s">
         <v>280</v>
       </c>
@@ -9838,7 +9839,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40909</v>
       </c>
@@ -9862,7 +9863,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>40940</v>
       </c>
@@ -9886,7 +9887,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40969</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>41000</v>
       </c>
@@ -9934,7 +9935,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>41030</v>
       </c>
@@ -9958,7 +9959,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>41061</v>
       </c>
@@ -9982,7 +9983,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41091</v>
       </c>
@@ -10006,7 +10007,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41122</v>
       </c>
@@ -10030,7 +10031,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41153</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>273</v>
@@ -10073,7 +10074,7 @@
         <v>40818</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>284</v>
@@ -10090,7 +10091,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>41183</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>273</v>
@@ -10135,7 +10136,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>284</v>
@@ -10152,7 +10153,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>41214</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>285</v>
@@ -10197,7 +10198,7 @@
         <v>40896</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41244</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>40905</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>286</v>
@@ -10243,7 +10244,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="48" t="s">
         <v>288</v>
       </c>
@@ -10261,7 +10262,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>41275</v>
       </c>
@@ -10285,7 +10286,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41306</v>
       </c>
@@ -10305,7 +10306,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41334</v>
       </c>
@@ -10329,7 +10330,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41365</v>
       </c>
@@ -10353,7 +10354,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>41395</v>
       </c>
@@ -10377,7 +10378,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>291</v>
@@ -10394,7 +10395,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41426</v>
       </c>
@@ -10418,7 +10419,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41456</v>
       </c>
@@ -10442,7 +10443,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41487</v>
       </c>
@@ -10466,7 +10467,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41518</v>
       </c>
@@ -10490,7 +10491,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>41548</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>296</v>
@@ -10531,7 +10532,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41579</v>
       </c>
@@ -10555,7 +10556,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41609</v>
       </c>
@@ -10579,7 +10580,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>298</v>
@@ -10601,7 +10602,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>299</v>
@@ -10621,7 +10622,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="48" t="s">
         <v>302</v>
       </c>
@@ -10639,7 +10640,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41640</v>
       </c>
@@ -10663,7 +10664,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>41671</v>
       </c>
@@ -10687,7 +10688,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41699</v>
       </c>
@@ -10711,7 +10712,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>41730</v>
       </c>
@@ -10735,7 +10736,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41760</v>
       </c>
@@ -10759,7 +10760,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>41791</v>
       </c>
@@ -10783,7 +10784,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>307</v>
@@ -10800,7 +10801,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41821</v>
       </c>
@@ -10824,7 +10825,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41852</v>
       </c>
@@ -10848,7 +10849,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41883</v>
       </c>
@@ -10872,7 +10873,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>41913</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>311</v>
@@ -10913,7 +10914,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41944</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>312</v>
@@ -10956,7 +10957,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41974</v>
       </c>
@@ -10980,7 +10981,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="48" t="s">
         <v>314</v>
       </c>
@@ -10998,7 +10999,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42005</v>
       </c>
@@ -11022,7 +11023,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>150</v>
@@ -11039,7 +11040,7 @@
         <v>42048</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>315</v>
@@ -11056,7 +11057,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>42036</v>
       </c>
@@ -11080,7 +11081,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>42064</v>
       </c>
@@ -11104,7 +11105,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>42095</v>
       </c>
@@ -11128,7 +11129,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>42125</v>
       </c>
@@ -11152,7 +11153,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42156</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>238</v>
@@ -11195,7 +11196,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>42186</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>320</v>
@@ -11236,7 +11237,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>42217</v>
       </c>
@@ -11260,7 +11261,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42248</v>
       </c>
@@ -11284,7 +11285,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>42278</v>
       </c>
@@ -11308,7 +11309,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>42309</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>323</v>
@@ -11351,7 +11352,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42339</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>324</v>
@@ -11397,7 +11398,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="48" t="s">
         <v>327</v>
       </c>
@@ -11415,7 +11416,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>42370</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>42377</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>150</v>
@@ -11456,7 +11457,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>150</v>
@@ -11473,7 +11474,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>328</v>
@@ -11490,7 +11491,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>42401</v>
       </c>
@@ -11514,7 +11515,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42430</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>330</v>
@@ -11557,7 +11558,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>42461</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>45</v>
@@ -11602,7 +11603,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>45</v>
@@ -11621,7 +11622,7 @@
         <v>42493</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>332</v>
@@ -11638,7 +11639,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>42491</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>45</v>
@@ -11683,7 +11684,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>333</v>
@@ -11702,7 +11703,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>42522</v>
       </c>
@@ -11728,7 +11729,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>45</v>
@@ -11747,7 +11748,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>45</v>
@@ -11766,7 +11767,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>334</v>
@@ -11783,7 +11784,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42552</v>
       </c>
@@ -11809,7 +11810,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42583</v>
       </c>
@@ -11835,7 +11836,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>42614</v>
       </c>
@@ -11861,7 +11862,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42644</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -11906,7 +11907,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>338</v>
@@ -11925,7 +11926,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42675</v>
       </c>
@@ -11951,7 +11952,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42705</v>
       </c>
@@ -11977,7 +11978,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -11994,7 +11995,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="49"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>341</v>
       </c>
@@ -12012,7 +12013,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>42736</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>42767</v>
       </c>
@@ -12058,7 +12059,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42795</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42826</v>
       </c>
@@ -12104,7 +12105,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42856</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>150</v>
@@ -12147,7 +12148,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42887</v>
       </c>
@@ -12167,7 +12168,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>42917</v>
       </c>
@@ -12187,7 +12188,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>42948</v>
       </c>
@@ -12211,7 +12212,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>42979</v>
       </c>
@@ -12231,7 +12232,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43009</v>
       </c>
@@ -12251,7 +12252,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -12271,7 +12272,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -12295,7 +12296,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="48" t="s">
         <v>345</v>
       </c>
@@ -12313,7 +12314,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43101</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43132</v>
       </c>
@@ -12357,7 +12358,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43160</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43191</v>
       </c>
@@ -12407,7 +12408,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43221</v>
       </c>
@@ -12433,7 +12434,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>45</v>
@@ -12452,7 +12453,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43252</v>
       </c>
@@ -12472,7 +12473,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43282</v>
       </c>
@@ -12498,7 +12499,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43313</v>
       </c>
@@ -12524,7 +12525,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43344</v>
       </c>
@@ -12548,7 +12549,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>45</v>
@@ -12567,7 +12568,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43374</v>
       </c>
@@ -12587,7 +12588,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43405</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>43435</v>
       </c>
@@ -12633,7 +12634,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="48" t="s">
         <v>346</v>
       </c>
@@ -12651,7 +12652,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43466</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43497</v>
       </c>
@@ -12699,7 +12700,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>45</v>
@@ -12718,7 +12719,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43525</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43556</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>49</v>
@@ -12789,7 +12790,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43586</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43617</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>68</v>
@@ -12860,7 +12861,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43647</v>
       </c>
@@ -12880,7 +12881,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>43678</v>
       </c>
@@ -12900,7 +12901,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43709</v>
       </c>
@@ -12926,7 +12927,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43739</v>
       </c>
@@ -12946,7 +12947,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43770</v>
       </c>
@@ -12966,7 +12967,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43800</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>45</v>
@@ -13011,7 +13012,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="48" t="s">
         <v>349</v>
       </c>
@@ -13029,7 +13030,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43831</v>
       </c>
@@ -13049,7 +13050,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43862</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>49</v>
@@ -13090,7 +13091,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>150</v>
@@ -13107,7 +13108,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43891</v>
       </c>
@@ -13127,7 +13128,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43922</v>
       </c>
@@ -13147,7 +13148,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>43952</v>
       </c>
@@ -13167,7 +13168,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43983</v>
       </c>
@@ -13191,7 +13192,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>45</v>
@@ -13208,7 +13209,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44013</v>
       </c>
@@ -13228,7 +13229,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44044</v>
       </c>
@@ -13248,7 +13249,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44075</v>
       </c>
@@ -13268,7 +13269,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44105</v>
       </c>
@@ -13288,7 +13289,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44136</v>
       </c>
@@ -13308,7 +13309,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44166</v>
       </c>
@@ -13332,7 +13333,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="48" t="s">
         <v>354</v>
       </c>
@@ -13350,7 +13351,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44197</v>
       </c>
@@ -13376,7 +13377,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>150</v>
@@ -13393,7 +13394,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>69</v>
@@ -13412,7 +13413,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>68</v>
@@ -13431,7 +13432,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>150</v>
@@ -13448,7 +13449,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44228</v>
       </c>
@@ -13474,7 +13475,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44256</v>
       </c>
@@ -13500,7 +13501,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44287</v>
       </c>
@@ -13520,7 +13521,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44317</v>
       </c>
@@ -13540,7 +13541,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44348</v>
       </c>
@@ -13560,7 +13561,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44378</v>
       </c>
@@ -13580,7 +13581,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44409</v>
       </c>
@@ -13602,7 +13603,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44440</v>
       </c>
@@ -13622,7 +13623,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44470</v>
       </c>
@@ -13642,7 +13643,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44501</v>
       </c>
@@ -13668,7 +13669,7 @@
         <v>44505</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>142</v>
@@ -13687,7 +13688,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44531</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>44543</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="48" t="s">
         <v>358</v>
       </c>
@@ -13729,7 +13730,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44562</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>68</v>
@@ -13772,7 +13773,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44593</v>
       </c>
@@ -13798,7 +13799,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>150</v>
@@ -13815,7 +13816,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44621</v>
       </c>
@@ -13841,7 +13842,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>375</v>
@@ -13861,7 +13862,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="49"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>44652</v>
       </c>
@@ -13887,7 +13888,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>45</v>
@@ -13906,7 +13907,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>374</v>
@@ -13926,7 +13927,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="49"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44682</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>62</v>
@@ -13972,7 +13973,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>44713</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>44732</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>373</v>
@@ -14018,7 +14019,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="49"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44743</v>
       </c>
@@ -14042,7 +14043,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44774</v>
       </c>
@@ -14068,7 +14069,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>114</v>
@@ -14088,7 +14089,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44805</v>
       </c>
@@ -14114,7 +14115,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>371</v>
@@ -14134,7 +14135,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="49"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>44835</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>370</v>
@@ -14180,7 +14181,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="49"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>44866</v>
       </c>
@@ -14200,7 +14201,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>369</v>
@@ -14220,7 +14221,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>44896</v>
       </c>
@@ -14246,7 +14247,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>367</v>
@@ -14268,7 +14269,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>368</v>
@@ -14288,7 +14289,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="49"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="48" t="s">
         <v>363</v>
       </c>
@@ -14306,7 +14307,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="49"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>44927</v>
       </c>
@@ -14326,7 +14327,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>44958</v>
       </c>
@@ -14352,7 +14353,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>45</v>
@@ -14374,7 +14375,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>44986</v>
       </c>
@@ -14400,7 +14401,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45017</v>
       </c>
@@ -14420,7 +14421,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45047</v>
       </c>
@@ -14446,7 +14447,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45078</v>
       </c>
@@ -14472,7 +14473,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>45</v>
@@ -14494,7 +14495,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45108</v>
       </c>
@@ -14520,7 +14521,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45139</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>45170</v>
       </c>
@@ -14572,7 +14573,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45200</v>
       </c>
@@ -14592,7 +14593,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45231</v>
       </c>
@@ -14618,7 +14619,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45261</v>
       </c>
@@ -14638,7 +14639,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="48" t="s">
         <v>379</v>
       </c>
@@ -14656,20 +14657,22 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45292</v>
       </c>
       <c r="B574" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C574" s="13"/>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39">
         <v>1</v>
@@ -14680,11 +14683,11 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B575" s="20"/>
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A575" s="40"/>
+      <c r="B575" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
@@ -14693,14 +14696,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H575" s="39"/>
+      <c r="H575" s="39">
+        <v>1</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
-    </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K575" s="49">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14716,9 +14723,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14734,9 +14741,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14752,9 +14759,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14770,9 +14777,9 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14788,9 +14795,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14806,9 +14813,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14824,9 +14831,9 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14842,9 +14849,9 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14860,9 +14867,9 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14878,9 +14885,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14896,9 +14903,9 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14914,9 +14921,9 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14932,9 +14939,9 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14950,9 +14957,9 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14968,9 +14975,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14986,9 +14993,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15004,9 +15011,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15022,9 +15029,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15040,9 +15047,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15058,9 +15065,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15076,9 +15083,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15094,9 +15101,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15112,9 +15119,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15130,9 +15137,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15148,9 +15155,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15166,9 +15173,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15184,9 +15191,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15202,9 +15209,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15220,9 +15227,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15238,9 +15245,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15256,9 +15263,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15274,9 +15281,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15292,9 +15299,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15310,9 +15317,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15328,9 +15335,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15346,9 +15353,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15364,9 +15371,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15382,9 +15389,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15400,9 +15407,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15418,9 +15425,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15436,9 +15443,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15454,9 +15461,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15472,9 +15479,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15490,9 +15497,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15508,9 +15515,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15526,9 +15533,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15544,9 +15551,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15562,9 +15569,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15580,9 +15587,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15598,9 +15605,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15616,9 +15623,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15634,9 +15641,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15652,9 +15659,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15670,9 +15677,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15688,9 +15695,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15706,9 +15713,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15724,9 +15731,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15742,9 +15749,9 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15760,9 +15767,9 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15778,9 +15785,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15796,9 +15803,9 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15814,9 +15821,9 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15832,9 +15839,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15850,9 +15857,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15868,9 +15875,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -15886,9 +15893,9 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -15904,9 +15911,9 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -15922,9 +15929,9 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -15940,9 +15947,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -15958,9 +15965,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -15976,9 +15983,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -15994,9 +16001,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16012,9 +16019,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16030,9 +16037,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16048,9 +16055,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16066,9 +16073,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16084,9 +16091,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16102,9 +16109,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16120,9 +16127,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16138,9 +16145,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16156,9 +16163,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16174,9 +16181,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16192,9 +16199,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16210,9 +16217,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16228,9 +16235,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16246,9 +16253,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16264,9 +16271,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16282,9 +16289,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -16300,9 +16307,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -16318,9 +16325,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -16336,9 +16343,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -16354,8 +16361,10 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A668" s="40"/>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A668" s="40">
+        <v>48122</v>
+      </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
       <c r="D668" s="39"/>
@@ -16370,7 +16379,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -16386,7 +16395,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -16402,7 +16411,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -16418,7 +16427,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -16434,7 +16443,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -16450,7 +16459,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -16466,7 +16475,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -16482,7 +16491,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -16498,7 +16507,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -16514,7 +16523,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -16530,7 +16539,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -16546,7 +16555,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -16562,7 +16571,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -16578,7 +16587,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -16594,7 +16603,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -16610,7 +16619,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -16626,7 +16635,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -16642,7 +16651,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -16658,7 +16667,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -16674,7 +16683,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -16690,7 +16699,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -16706,7 +16715,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -16722,7 +16731,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -16738,7 +16747,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -16754,7 +16763,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -16770,7 +16779,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -16786,7 +16795,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -16802,7 +16811,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -16818,7 +16827,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -16834,7 +16843,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -16850,7 +16859,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -16866,7 +16875,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -16882,7 +16891,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -16898,7 +16907,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -16914,7 +16923,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -16930,7 +16939,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -16946,7 +16955,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -16962,7 +16971,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -16978,7 +16987,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -16994,7 +17003,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17010,7 +17019,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17026,7 +17035,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17042,7 +17051,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17058,7 +17067,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -17074,7 +17083,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -17090,7 +17099,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -17106,7 +17115,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -17122,7 +17131,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -17138,7 +17147,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -17154,7 +17163,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -17170,7 +17179,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -17186,7 +17195,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -17202,7 +17211,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -17218,7 +17227,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -17234,7 +17243,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -17250,7 +17259,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -17266,7 +17275,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -17282,7 +17291,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -17298,7 +17307,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -17314,7 +17323,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -17330,7 +17339,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -17346,7 +17355,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -17362,7 +17371,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -17378,7 +17387,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -17394,7 +17403,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -17410,7 +17419,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -17426,7 +17435,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -17442,7 +17451,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -17458,7 +17467,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -17474,7 +17483,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -17490,7 +17499,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -17506,7 +17515,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -17522,7 +17531,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -17538,7 +17547,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -17554,7 +17563,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -17570,7 +17579,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -17586,7 +17595,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -17602,7 +17611,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -17618,7 +17627,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -17634,7 +17643,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -17650,7 +17659,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -17666,7 +17675,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -17682,7 +17691,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -17698,7 +17707,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -17714,7 +17723,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -17730,7 +17739,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -17746,7 +17755,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -17762,7 +17771,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -17778,7 +17787,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -17794,7 +17803,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -17810,7 +17819,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -17826,7 +17835,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -17842,7 +17851,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -17858,7 +17867,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -17874,7 +17883,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -17890,7 +17899,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -17906,7 +17915,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -17922,7 +17931,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -17938,7 +17947,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -17954,7 +17963,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -17970,7 +17979,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -17986,7 +17995,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -18002,7 +18011,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -18018,7 +18027,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -18034,21 +18043,37 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A773" s="41"/>
-      <c r="B773" s="15"/>
-      <c r="C773" s="42"/>
-      <c r="D773" s="43"/>
-      <c r="E773" s="51"/>
-      <c r="F773" s="15"/>
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A773" s="40"/>
+      <c r="B773" s="20"/>
+      <c r="C773" s="13"/>
+      <c r="D773" s="39"/>
+      <c r="E773" s="9"/>
+      <c r="F773" s="20"/>
       <c r="G773" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H773" s="43"/>
-      <c r="I773" s="51"/>
-      <c r="J773" s="12"/>
-      <c r="K773" s="15"/>
+      <c r="H773" s="39"/>
+      <c r="I773" s="9"/>
+      <c r="J773" s="11"/>
+      <c r="K773" s="20"/>
+    </row>
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A774" s="41"/>
+      <c r="B774" s="15"/>
+      <c r="C774" s="42"/>
+      <c r="D774" s="43"/>
+      <c r="E774" s="51"/>
+      <c r="F774" s="15"/>
+      <c r="G774" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H774" s="43"/>
+      <c r="I774" s="51"/>
+      <c r="J774" s="12"/>
+      <c r="K774" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -18065,10 +18090,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18091,28 +18116,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -18125,7 +18150,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18154,7 +18179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>24.11</v>
       </c>
@@ -18182,17 +18207,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18213,7 +18238,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18240,7 +18265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18266,7 +18291,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18292,7 +18317,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18318,7 +18343,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18344,7 +18369,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18370,7 +18395,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18396,7 +18421,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18422,7 +18447,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18442,7 +18467,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18462,7 +18487,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18482,7 +18507,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18503,7 +18528,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18524,7 +18549,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18545,7 +18570,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18566,7 +18591,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18587,7 +18612,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18608,7 +18633,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18629,7 +18654,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18650,7 +18675,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18671,7 +18696,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18692,7 +18717,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18713,7 +18738,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18734,7 +18759,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18755,7 +18780,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18776,7 +18801,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18797,7 +18822,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18818,7 +18843,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18839,7 +18864,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18860,7 +18885,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18881,7 +18906,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18902,7 +18927,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18911,7 +18936,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18920,7 +18945,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18929,7 +18954,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18938,7 +18963,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18947,7 +18972,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18956,7 +18981,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18965,7 +18990,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18974,7 +18999,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18983,7 +19008,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18992,7 +19017,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19001,7 +19026,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19010,7 +19035,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19019,7 +19044,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19028,7 +19053,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19037,7 +19062,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19046,7 +19071,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19055,7 +19080,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19064,7 +19089,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19073,7 +19098,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19082,7 +19107,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19091,7 +19116,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19100,7 +19125,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19109,7 +19134,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19118,7 +19143,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19127,7 +19152,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19136,7 +19161,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19145,7 +19170,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19154,7 +19179,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19163,7 +19188,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
